--- a/data/auxilliary/haver_names.xlsx
+++ b/data/auxilliary/haver_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/data/auxilliary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D249748A-2AB5-894A-B6EA-FDF824E2DC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C87E5-E7F7-3241-AAEE-23576A13A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="460" windowWidth="25540" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,7 +703,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1112,15 +1112,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -1337,6 +1328,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
   <ds:schemaRefs>
@@ -1347,14 +1347,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6FBE834-A7AF-4CA7-B4B3-E5BBA0B171E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1371,4 +1363,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/auxilliary/haver_names.xlsx
+++ b/data/auxilliary/haver_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/data/auxilliary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcalakovalski\Documents\Fiscal-Impact-Measure\data\auxilliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439C87E5-E7F7-3241-AAEE-23576A13A481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A3838-9107-4B6F-B682-F0B6C691B1CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="460" windowWidth="25540" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>code</t>
   </si>
@@ -314,6 +314,33 @@
   </si>
   <si>
     <t>rebate_checks</t>
+  </si>
+  <si>
+    <t>gftfpp</t>
+  </si>
+  <si>
+    <t>gftfpv</t>
+  </si>
+  <si>
+    <t>gfsubp</t>
+  </si>
+  <si>
+    <t>gfsubg</t>
+  </si>
+  <si>
+    <t>gfsube</t>
+  </si>
+  <si>
+    <t>gfsubk</t>
+  </si>
+  <si>
+    <t>gfegc</t>
+  </si>
+  <si>
+    <t>gfege</t>
+  </si>
+  <si>
+    <t>gfegv</t>
   </si>
 </sst>
 </file>
@@ -700,15 +727,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -724,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -732,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -740,7 +767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -748,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -756,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -764,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -772,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -780,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -788,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -796,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -804,7 +831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -812,7 +839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -820,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -828,7 +855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -836,7 +863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -844,7 +871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -852,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -860,7 +887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -868,7 +895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -876,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -884,7 +911,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -892,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -900,7 +927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -908,7 +935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -916,7 +943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -924,7 +951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -932,7 +959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -940,7 +967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -948,7 +975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -956,7 +983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -964,7 +991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -972,7 +999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -980,7 +1007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -988,7 +1015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -996,7 +1023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1004,7 +1031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1012,7 +1039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1020,7 +1047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1044,7 +1071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1052,7 +1079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1060,7 +1087,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1068,7 +1095,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1076,7 +1103,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1084,7 +1111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1092,12 +1119,57 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1106,9 +1178,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,19 +1404,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1366,9 +1437,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/auxilliary/haver_names.xlsx
+++ b/data/auxilliary/haver_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcalakovalski\Documents\Fiscal-Impact-Measure\data\auxilliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A3838-9107-4B6F-B682-F0B6C691B1CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D726679-0CB2-472C-AA83-AC54A8940412}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>code</t>
   </si>
@@ -341,6 +341,24 @@
   </si>
   <si>
     <t>gfegv</t>
+  </si>
+  <si>
+    <t>yptup</t>
+  </si>
+  <si>
+    <t>yptuc</t>
+  </si>
+  <si>
+    <t>yptue</t>
+  </si>
+  <si>
+    <t>peuc</t>
+  </si>
+  <si>
+    <t>pua</t>
+  </si>
+  <si>
+    <t>puc</t>
   </si>
 </sst>
 </file>
@@ -727,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,18 +1190,39 @@
         <v>106</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,15 +1443,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1437,10 +1480,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/auxilliary/haver_names.xlsx
+++ b/data/auxilliary/haver_names.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcalakovalski\Documents\Fiscal-Impact-Measure\data\auxilliary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/auxilliary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D726679-0CB2-472C-AA83-AC54A8940412}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82153660-A83C-2D4F-9914-D57FFD991A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="580" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>code</t>
   </si>
@@ -31,63 +42,33 @@
     <t>gdp</t>
   </si>
   <si>
-    <t>gdpNom</t>
-  </si>
-  <si>
     <t>gdph</t>
   </si>
   <si>
-    <t>gdpReal</t>
-  </si>
-  <si>
     <t>jgdp</t>
   </si>
   <si>
-    <t>gdpChain</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>personalConsumptionNom</t>
-  </si>
-  <si>
     <t>ch</t>
   </si>
   <si>
-    <t>personalConsumptionReal</t>
-  </si>
-  <si>
     <t>jc</t>
   </si>
   <si>
-    <t>personalConsumptionChain</t>
-  </si>
-  <si>
     <t>jgf</t>
   </si>
   <si>
-    <t>consumptionInvestmentChainFederal</t>
-  </si>
-  <si>
     <t>jgs</t>
   </si>
   <si>
-    <t>consumptionInvestmentChainState</t>
-  </si>
-  <si>
     <t>jgse</t>
   </si>
   <si>
-    <t>consumptionChainState</t>
-  </si>
-  <si>
     <t>jgsi</t>
   </si>
   <si>
-    <t>investmentChainState</t>
-  </si>
-  <si>
     <t>ptgh</t>
   </si>
   <si>
@@ -109,27 +90,15 @@
     <t>yptmr</t>
   </si>
   <si>
-    <t>socialBenefitsMedicare</t>
-  </si>
-  <si>
     <t>yptmd</t>
   </si>
   <si>
-    <t>socialBenefitsMedicaid</t>
-  </si>
-  <si>
     <t>yptu</t>
   </si>
   <si>
-    <t>transfersUnemployment</t>
-  </si>
-  <si>
     <t>gtfp</t>
   </si>
   <si>
-    <t>socialBenefits</t>
-  </si>
-  <si>
     <t>ypog</t>
   </si>
   <si>
@@ -139,27 +108,15 @@
     <t>yptx</t>
   </si>
   <si>
-    <t>taxPersonal</t>
-  </si>
-  <si>
     <t>ytpi</t>
   </si>
   <si>
-    <t>taxProduction</t>
-  </si>
-  <si>
     <t>yctlg</t>
   </si>
   <si>
-    <t>taxCorporate</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>consumptionInvestment</t>
-  </si>
-  <si>
     <t>grcsi</t>
   </si>
   <si>
@@ -169,117 +126,60 @@
     <t>dc</t>
   </si>
   <si>
-    <t>personalConsumptionDeflator</t>
-  </si>
-  <si>
     <t>gf</t>
   </si>
   <si>
-    <t>consumptionInvestmentFederal</t>
-  </si>
-  <si>
     <t>gs</t>
   </si>
   <si>
-    <t>consumptionInvestmentState</t>
-  </si>
-  <si>
     <t>gfh</t>
   </si>
   <si>
-    <t>consumptionInvestmentRealFederal</t>
-  </si>
-  <si>
     <t>gsh</t>
   </si>
   <si>
-    <t>consumptionInvestmentRealState</t>
-  </si>
-  <si>
     <t>gfrpt</t>
   </si>
   <si>
-    <t>taxPersonalFederal</t>
-  </si>
-  <si>
     <t>gfrpri</t>
   </si>
   <si>
-    <t>taxProductionFederal</t>
-  </si>
-  <si>
     <t>gfrcp</t>
   </si>
   <si>
-    <t>taxCorporateFederal</t>
-  </si>
-  <si>
     <t>gfrs</t>
   </si>
   <si>
-    <t>paymentSocialInsuranceFederal</t>
-  </si>
-  <si>
     <t>gftfp</t>
   </si>
   <si>
-    <t>socialBenefitsFederal</t>
-  </si>
-  <si>
     <t>gfeg</t>
   </si>
   <si>
-    <t>grantsFederal</t>
-  </si>
-  <si>
     <t>gsrpt</t>
   </si>
   <si>
-    <t>taxPersonalState</t>
-  </si>
-  <si>
     <t>gsrpri</t>
   </si>
   <si>
-    <t>taxProductionState</t>
-  </si>
-  <si>
     <t>gsrcp</t>
   </si>
   <si>
-    <t>taxCorporateState</t>
-  </si>
-  <si>
     <t>gsrs</t>
   </si>
   <si>
-    <t>paymentSocialInsuranceState</t>
-  </si>
-  <si>
     <t>gstfp</t>
   </si>
   <si>
-    <t>socialBenefitsState</t>
-  </si>
-  <si>
     <t>gset</t>
   </si>
   <si>
-    <t>expendituresState</t>
-  </si>
-  <si>
     <t>gfeghhx</t>
   </si>
   <si>
-    <t>grantsHealthFederal</t>
-  </si>
-  <si>
     <t>gfeghdx</t>
   </si>
   <si>
-    <t>grantsMedicaidFederal</t>
-  </si>
-  <si>
     <t>gfeigx</t>
   </si>
   <si>
@@ -289,15 +189,9 @@
     <t>gfsub</t>
   </si>
   <si>
-    <t>subsidiesFederal</t>
-  </si>
-  <si>
     <t>gssub</t>
   </si>
   <si>
-    <t>subsidiesState</t>
-  </si>
-  <si>
     <t>gsub</t>
   </si>
   <si>
@@ -307,9 +201,6 @@
     <t>gftfbusx</t>
   </si>
   <si>
-    <t>transfersUnemploymentState</t>
-  </si>
-  <si>
     <t>gftfpe</t>
   </si>
   <si>
@@ -359,6 +250,162 @@
   </si>
   <si>
     <t>puc</t>
+  </si>
+  <si>
+    <t>gftfpu</t>
+  </si>
+  <si>
+    <t>ui_expansion</t>
+  </si>
+  <si>
+    <t>gfsubf</t>
+  </si>
+  <si>
+    <t>gfsubs</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>nonprofit_provider_relief_fund</t>
+  </si>
+  <si>
+    <t>nonprofit_ppp</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>employee_retention</t>
+  </si>
+  <si>
+    <t>paid_sick_leave</t>
+  </si>
+  <si>
+    <t>coronavirus_food_assistance</t>
+  </si>
+  <si>
+    <t>coronavirus_relief_fund</t>
+  </si>
+  <si>
+    <t>education_stabilization_fund</t>
+  </si>
+  <si>
+    <t>provider_relief_fund</t>
+  </si>
+  <si>
+    <t>real_gdp</t>
+  </si>
+  <si>
+    <t>gdp_deflator</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>real_consumption</t>
+  </si>
+  <si>
+    <t>consumption_deflator</t>
+  </si>
+  <si>
+    <t>federal_purchases_deflator</t>
+  </si>
+  <si>
+    <t>state_purchases_deflator</t>
+  </si>
+  <si>
+    <t>consumption_grants_deflator</t>
+  </si>
+  <si>
+    <t>investment_grants_deflator</t>
+  </si>
+  <si>
+    <t>medicare</t>
+  </si>
+  <si>
+    <t>medicaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ui </t>
+  </si>
+  <si>
+    <t>social_benefits</t>
+  </si>
+  <si>
+    <t>personal_taxes</t>
+  </si>
+  <si>
+    <t>production_taxes</t>
+  </si>
+  <si>
+    <t>corporate_taxes</t>
+  </si>
+  <si>
+    <t>purchases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal_purchases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_purchases </t>
+  </si>
+  <si>
+    <t>real_federal_purchases</t>
+  </si>
+  <si>
+    <t>real_state_purchases</t>
+  </si>
+  <si>
+    <t>federal_personal_taxes</t>
+  </si>
+  <si>
+    <t>federal_production_taxes</t>
+  </si>
+  <si>
+    <t>federal_corporate_taxes</t>
+  </si>
+  <si>
+    <t>federal_payroll_taxes</t>
+  </si>
+  <si>
+    <t>federal_social_benefits</t>
+  </si>
+  <si>
+    <t>grants</t>
+  </si>
+  <si>
+    <t>state_production_taxes</t>
+  </si>
+  <si>
+    <t>state_personal_taxes</t>
+  </si>
+  <si>
+    <t>state_corporate_taxes</t>
+  </si>
+  <si>
+    <t>state_payroll_taxes</t>
+  </si>
+  <si>
+    <t>state_social_benefits</t>
+  </si>
+  <si>
+    <t>state_expenditures</t>
+  </si>
+  <si>
+    <t>health_grants</t>
+  </si>
+  <si>
+    <t>medicaid_grants</t>
+  </si>
+  <si>
+    <t>federal_subsidies</t>
+  </si>
+  <si>
+    <t>state_subsidies</t>
   </si>
 </sst>
 </file>
@@ -745,15 +792,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="A65" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,457 +811,505 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B64" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1220,9 +1318,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1443,19 +1544,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1480,9 +1577,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/auxilliary/haver_names.xlsx
+++ b/data/auxilliary/haver_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/auxilliary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82153660-A83C-2D4F-9914-D57FFD991A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A43BD41-ABA2-E544-9071-51676FF0B8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>code</t>
   </si>
@@ -69,24 +69,6 @@
     <t>jgsi</t>
   </si>
   <si>
-    <t>ptgh</t>
-  </si>
-  <si>
-    <t>consumptionInvestmentCont</t>
-  </si>
-  <si>
-    <t>ptgsh</t>
-  </si>
-  <si>
-    <t>consumptionInvestmentContState</t>
-  </si>
-  <si>
-    <t>ptgfh</t>
-  </si>
-  <si>
-    <t>consumptionInvestmentContFederal</t>
-  </si>
-  <si>
     <t>yptmr</t>
   </si>
   <si>
@@ -196,9 +178,6 @@
   </si>
   <si>
     <t>subsidies</t>
-  </si>
-  <si>
-    <t>gftfbusx</t>
   </si>
   <si>
     <t>gftfpe</t>
@@ -792,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
-      <selection activeCell="A65" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="221" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -824,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -832,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -840,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -848,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -856,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -864,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -872,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -880,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -888,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -896,321 +875,324 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
@@ -1218,58 +1200,58 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
         <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
         <v>65</v>
-      </c>
-      <c r="B59" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,39 +1259,7 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
         <v>67</v>
-      </c>
-      <c r="B62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/auxilliary/haver_names.xlsx
+++ b/data/auxilliary/haver_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/data/auxilliary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcalakovalski\Documents\Fiscal-Impact-Measure\data\auxilliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A43BD41-ABA2-E544-9071-51676FF0B8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C270298-FDD5-4888-8742-7687E4973A9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>code</t>
   </si>
@@ -385,6 +382,18 @@
   </si>
   <si>
     <t>state_subsidies</t>
+  </si>
+  <si>
+    <t>gfsubv</t>
+  </si>
+  <si>
+    <t>provider_relief_fund_grants</t>
+  </si>
+  <si>
+    <t>gftfpr</t>
+  </si>
+  <si>
+    <t>medicare_reimbursement_increase</t>
   </si>
 </sst>
 </file>
@@ -771,18 +780,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="221" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="221" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -798,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -806,7 +815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -814,7 +823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -822,7 +831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -830,7 +839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -838,7 +847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -846,7 +855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -854,7 +863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -862,7 +871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -870,7 +879,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -878,7 +887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -886,7 +895,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -894,7 +903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -902,7 +911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -910,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -918,7 +927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -926,7 +935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -934,7 +943,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -942,7 +951,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -950,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -958,7 +967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -966,7 +975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -974,7 +983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -982,7 +991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -990,7 +999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +1119,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1142,123 +1151,139 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1268,12 +1293,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,15 +1516,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1527,10 +1553,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7CC3BF-DF9F-4E15-B3E2-3F2BE52E9D01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11C50A7A-072C-42B0-A807-112C623C860C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>